--- a/data/trans_camb/P32-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>11.73732829314677</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1480075510283833</v>
+        <v>0.148007551028384</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.530374669047487</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>12.36817389125054</v>
+        <v>13.47860616000683</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.130178522881196</v>
+        <v>5.460365369876012</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.173374616680517</v>
+        <v>-4.181508553140101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.698428572474783</v>
+        <v>-2.447402778357265</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.803617072295598</v>
+        <v>-0.424745011637147</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.715273438820168</v>
+        <v>-10.50303505554403</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.668253172562752</v>
+        <v>8.788733630970444</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.135222499400878</v>
+        <v>5.024580819854969</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.155762237575752</v>
+        <v>-4.176295736114848</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>27.51266573024384</v>
+        <v>28.29093684768024</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.40355164583326</v>
+        <v>18.52418947027336</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.625437981093043</v>
+        <v>4.67408219840786</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.44495230028947</v>
+        <v>11.94962532656323</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.30262387413652</v>
+        <v>12.84349933251591</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>19.75899557374574</v>
+        <v>19.51518033892023</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.61880241405578</v>
+        <v>14.54373156311425</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.179531252506779</v>
+        <v>2.308960507353191</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>3.014437815097477</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.03801202007789398</v>
+        <v>0.03801202007789416</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.34605199184587</v>
@@ -780,27 +780,27 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1.814268324603244</v>
+        <v>1.959046316123523</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.5316497184672989</v>
+        <v>0.7856110267654125</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7672397301070352</v>
+        <v>-0.7489450526934607</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="n">
-        <v>-0.462166172123142</v>
+        <v>-0.6542694835846056</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>1.367564678801937</v>
+        <v>1.436991284665838</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7048826210697854</v>
+        <v>0.7879677686589431</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7921284750721838</v>
+        <v>-0.8265480727699206</v>
       </c>
     </row>
     <row r="9">
@@ -811,25 +811,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>14.42879148491654</v>
+        <v>15.98742412270098</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>10.73142778066661</v>
+        <v>9.338729692861008</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.397755881375233</v>
+        <v>2.599217393768683</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>9.876122067511339</v>
+        <v>10.22672774791029</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>7.32743548699882</v>
+        <v>8.161345794305548</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.508659188937747</v>
+        <v>1.310989869128436</v>
       </c>
     </row>
     <row r="10">
@@ -879,31 +879,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.446942475006723</v>
+        <v>-1.397490001519841</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.169802716077591</v>
+        <v>-8.175575473026084</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.98934527518955</v>
+        <v>-8.111697319752627</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.855319863175131</v>
+        <v>-3.367801882738444</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.291418440568269</v>
+        <v>-4.141996141979283</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.4910094017239</v>
+        <v>-5.496679277817626</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.241476143693365</v>
+        <v>-1.882581708305273</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.244278328839856</v>
+        <v>-6.465956946126447</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.385833975329056</v>
+        <v>-6.345267445102233</v>
       </c>
     </row>
     <row r="12">
@@ -914,31 +914,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.544856052615284</v>
+        <v>7.617343085752908</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.385049551084002</v>
+        <v>-1.58947934129746</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.7477750069434443</v>
+        <v>-0.9259610953339371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.077843962532253</v>
+        <v>4.514498282400024</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.197518924904501</v>
+        <v>2.946763393536398</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9722310976866889</v>
+        <v>0.9223101486036698</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.554763542196461</v>
+        <v>4.960817155003624</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.8055053491554178</v>
+        <v>-1.040076815433625</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.848928937511542</v>
+        <v>-0.8464317362512703</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>-0.7339195684487597</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.7318369833243039</v>
+        <v>-0.7318369833243038</v>
       </c>
     </row>
     <row r="14">
@@ -984,25 +984,25 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2213456458877664</v>
+        <v>-0.2027747270976006</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.9464737045556015</v>
+        <v>-0.9549707915790272</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.9530260783331953</v>
+        <v>-0.9768869980518115</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.2366108213868948</v>
+        <v>-0.2871374375524957</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.9274726424829217</v>
+        <v>-0.9344027911181806</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.9388562924690805</v>
+        <v>-0.9366760808661314</v>
       </c>
     </row>
     <row r="15">
@@ -1013,25 +1013,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.068083653863446</v>
+        <v>2.095587199963472</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2221986513619367</v>
+        <v>-0.09422403654902443</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.137419056415638</v>
+        <v>0.1312018456326711</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>1.831653110911786</v>
+        <v>1.605103053338714</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.04470522209441394</v>
+        <v>-0.1887583843292962</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.08508169629353227</v>
+        <v>0.01265464117311555</v>
       </c>
     </row>
     <row r="16">
@@ -1061,7 +1061,7 @@
         <v>0.6898052863474353</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.561461612955419</v>
+        <v>2.56146161295542</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.128350368047374</v>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5341988602370926</v>
+        <v>-0.5474152109603128</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1727589389225372</v>
+        <v>-0.1655089952026211</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.455248894729774</v>
+        <v>7.808924770960936</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6670301201783554</v>
+        <v>0.7113612089869659</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.1384054246275544</v>
+        <v>-0.1934549626561361</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02087653451814113</v>
+        <v>-0.07669811390630241</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.821389950311852</v>
+        <v>5.885541473104015</v>
       </c>
     </row>
     <row r="18">
@@ -1116,31 +1116,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.817725940985139</v>
+        <v>3.742806996972547</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.408121095583274</v>
+        <v>4.325435364573869</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.15150166739995</v>
+        <v>18.23869654188591</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.890558783145547</v>
+        <v>4.211476454739124</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.536370218792253</v>
+        <v>3.675659112764036</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.105395281342409</v>
+        <v>6.113952911023723</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.751727008558037</v>
+        <v>2.654817022192221</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.909671366722673</v>
+        <v>2.821743680243557</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.97441248494634</v>
+        <v>13.03110639244809</v>
       </c>
     </row>
     <row r="19">
@@ -1265,31 +1265,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.921978610892802</v>
+        <v>-4.86396569141837</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.520394657724379</v>
+        <v>-4.442308289998629</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.874023992291185</v>
+        <v>-4.633210204947019</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.759559846419682</v>
+        <v>-6.028296074979227</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.047954448133551</v>
+        <v>-6.63131280066224</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.300793020283834</v>
+        <v>-8.277924616888667</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.848303158485851</v>
+        <v>-4.264940543243687</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.338105916906447</v>
+        <v>-4.109094306671232</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.666461579285057</v>
+        <v>-4.289871928150712</v>
       </c>
     </row>
     <row r="24">
@@ -1300,31 +1300,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.752636581305943</v>
+        <v>3.640759708090576</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.188152412449564</v>
+        <v>3.271341567530316</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.793765900645758</v>
+        <v>3.667910319394527</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.780829772880661</v>
+        <v>2.961016157921975</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.482259575335561</v>
+        <v>2.310147308407369</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.1191762897622013</v>
+        <v>-0.131574955385388</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.811558574611345</v>
+        <v>2.633234884470211</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.736933253232723</v>
+        <v>1.66115647572429</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.13979675034618</v>
+        <v>1.475559815604047</v>
       </c>
     </row>
     <row r="25">
@@ -1370,25 +1370,25 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7270732179206821</v>
+        <v>-0.7306958620241598</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.678264163511003</v>
+        <v>-0.6632521774557647</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7271370281918832</v>
+        <v>-0.6764726514275906</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.6719977283477774</v>
+        <v>-0.7290361184342146</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7126808264107981</v>
+        <v>-0.7013855203210331</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.736972012426371</v>
+        <v>-0.7197164237298814</v>
       </c>
     </row>
     <row r="27">
@@ -1399,25 +1399,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.436053481331562</v>
+        <v>1.431239272788251</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.420754967823663</v>
+        <v>1.270352224198157</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.493985188055476</v>
+        <v>1.463175441848385</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>1.148626962184664</v>
+        <v>1.047965607338254</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6805338970323053</v>
+        <v>0.6779966780514909</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5108752155624173</v>
+        <v>0.6813207665870896</v>
       </c>
     </row>
     <row r="28">
@@ -1447,7 +1447,7 @@
         <v>-3.576304738763985</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.7524318212504648</v>
+        <v>0.7524318212504655</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.643094727258481</v>
@@ -1467,31 +1467,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6811721763794051</v>
+        <v>0.8020304040746397</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.597083054120612</v>
+        <v>-3.66809605433762</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.298506456630144</v>
+        <v>-7.607181817400694</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-12.9405782931267</v>
+        <v>-15.01050713505446</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-14.22183078369228</v>
+        <v>-17.21565995701158</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.188145171840999</v>
+        <v>-7.263279325794714</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.007253986150243</v>
+        <v>-1.278282752258135</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.898233565706202</v>
+        <v>-5.09959516331029</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-6.505173299190769</v>
+        <v>-6.004802106676123</v>
       </c>
     </row>
     <row r="30">
@@ -1502,31 +1502,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.19145561339983</v>
+        <v>12.64412028647772</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.447559801584781</v>
+        <v>5.398476807931061</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.8292738909832594</v>
+        <v>-0.831142361050518</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.267471304978706</v>
+        <v>3.306839706942323</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>15.51456645581944</v>
+        <v>15.08574519170926</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.2848313302059</v>
+        <v>8.270822566602563</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.712343032823141</v>
+        <v>3.010838414139751</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.127189875487687</v>
+        <v>1.327885218296438</v>
       </c>
     </row>
     <row r="31">
@@ -1552,7 +1552,7 @@
         <v>-1</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2103936538446425</v>
+        <v>0.2103936538446427</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.222265761164995</v>
@@ -1561,7 +1561,7 @@
         <v>-0.2498195249937523</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.6498673002058597</v>
+        <v>-0.6498673002058596</v>
       </c>
     </row>
     <row r="32">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2582192395802196</v>
+        <v>-0.1618164251073242</v>
       </c>
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
@@ -1580,7 +1580,7 @@
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.5031398620862582</v>
+        <v>-0.3406069644721499</v>
       </c>
       <c r="J32" s="6" t="n">
         <v>-1</v>
@@ -1594,19 +1594,17 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C33" s="6" t="n">
-        <v>14.70670947235381</v>
-      </c>
+      <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>8.283812658777485</v>
+        <v>6.517257203872153</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>3.815530880028524</v>
+        <v>3.868700180417989</v>
       </c>
       <c r="K33" s="6" t="inlineStr"/>
     </row>
@@ -1646,7 +1644,7 @@
         <v>0.09877632142182569</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>2.440630134972725</v>
+        <v>2.440630134972726</v>
       </c>
     </row>
     <row r="35">
@@ -1657,31 +1655,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.573020177012284</v>
+        <v>-2.293141256110622</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.337413850142645</v>
+        <v>-3.293278660380227</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.5074111240058458</v>
+        <v>-1.022106688862089</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.538695571617236</v>
+        <v>-3.549707149750783</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.763657176631169</v>
+        <v>-3.430703132187903</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.36554271514526</v>
+        <v>-2.231405174422423</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.181710606747941</v>
+        <v>-2.280010033026591</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.263375977160895</v>
+        <v>-2.574855687194419</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.323916026242862</v>
+        <v>-0.3879638178784555</v>
       </c>
     </row>
     <row r="36">
@@ -1692,31 +1690,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.818875171976237</v>
+        <v>4.780373054391371</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.108839290336192</v>
+        <v>3.366771812611585</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.623715581071807</v>
+        <v>7.493875657102364</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.386314006832774</v>
+        <v>2.287541930877634</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.674386345610404</v>
+        <v>3.596928337738296</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.927019629268628</v>
+        <v>5.160184731242325</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.012984814576653</v>
+        <v>2.980593665820162</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.647638486112503</v>
+        <v>2.330008418098534</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.231893396152387</v>
+        <v>5.435042925912301</v>
       </c>
     </row>
     <row r="37">
@@ -1762,25 +1760,25 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7434042722763751</v>
-      </c>
-      <c r="D38" s="6" t="n">
-        <v>-0.8575390622995159</v>
-      </c>
+        <v>-0.737463920098816</v>
+      </c>
+      <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.3601149821012804</v>
+        <v>-0.4464647568127714</v>
       </c>
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
-      <c r="H38" s="6" t="inlineStr"/>
+      <c r="H38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="I38" s="6" t="n">
-        <v>-0.6817854196795509</v>
+        <v>-0.7795375421048801</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7040183949405578</v>
+        <v>-0.7263161619414481</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.159679679296814</v>
+        <v>-0.2278666815483423</v>
       </c>
     </row>
     <row r="39">
@@ -1791,25 +1789,23 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>5.249828964890626</v>
-      </c>
-      <c r="D39" s="6" t="n">
-        <v>4.192041506289584</v>
-      </c>
+        <v>7.232354849712148</v>
+      </c>
+      <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>9.960203491551932</v>
+        <v>8.816114352803725</v>
       </c>
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="inlineStr"/>
       <c r="I39" s="6" t="n">
-        <v>3.438607218272537</v>
+        <v>2.766924639108198</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3.581426140923679</v>
+        <v>2.572616583314453</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>5.78392952266942</v>
+        <v>5.256407215707958</v>
       </c>
     </row>
     <row r="40">
@@ -1859,31 +1855,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.4963018733857062</v>
+        <v>0.4599680478421309</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>4.024244795320338</v>
+        <v>4.20669330972519</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8.038026078834266</v>
+        <v>8.002803144768352</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.4531877065535815</v>
+        <v>0.4572551893088511</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>4.381163835710034</v>
+        <v>4.366603606679518</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>5.173995577667282</v>
+        <v>5.006197430525776</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.6646403992066308</v>
+        <v>0.468126591588598</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>5.202919051507301</v>
+        <v>5.049248949816088</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>7.335912512109501</v>
+        <v>7.435122040770789</v>
       </c>
     </row>
     <row r="42">
@@ -1894,31 +1890,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.95940496737488</v>
+        <v>6.035615114544902</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.63487360819861</v>
+        <v>12.00449881152191</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>18.09675305379209</v>
+        <v>17.79467364583068</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.084114303620216</v>
+        <v>3.936847089458986</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>10.78227161264249</v>
+        <v>10.84439767153836</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>13.77022075629026</v>
+        <v>13.39577764876837</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.520629595606983</v>
+        <v>4.418848112492415</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>10.29066962558823</v>
+        <v>10.18208788036315</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>14.49255617454814</v>
+        <v>14.53817377887992</v>
       </c>
     </row>
     <row r="43">
@@ -1970,25 +1966,25 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.07927297134465348</v>
+        <v>-0.0937818039313964</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.9327492778407903</v>
+        <v>0.8535560855221094</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.956245283089675</v>
+        <v>2.022274931368046</v>
       </c>
       <c r="F44" s="6" t="inlineStr"/>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="inlineStr"/>
       <c r="I44" s="6" t="n">
-        <v>0.0414200272190979</v>
+        <v>0.0312357337021996</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>1.880895886615371</v>
+        <v>1.804593378213576</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>2.43185172693001</v>
+        <v>2.880175379435594</v>
       </c>
     </row>
     <row r="45">
@@ -1999,25 +1995,25 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>8.705317848577419</v>
+        <v>8.093499043464508</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>16.00674548043188</v>
+        <v>16.0266037456092</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>31.87461744288182</v>
+        <v>22.68376789946021</v>
       </c>
       <c r="F45" s="6" t="inlineStr"/>
       <c r="G45" s="6" t="inlineStr"/>
       <c r="H45" s="6" t="inlineStr"/>
       <c r="I45" s="6" t="n">
-        <v>9.331231572263508</v>
+        <v>8.273362982254366</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>19.22556342434412</v>
+        <v>19.01468281009628</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>26.47894064164905</v>
+        <v>27.87810684235459</v>
       </c>
     </row>
     <row r="46">
@@ -2038,7 +2034,7 @@
         <v>1.461124480246085</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.6259162386814361</v>
+        <v>0.6259162386814364</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1.166930914247729</v>
@@ -2067,31 +2063,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.4495434154452035</v>
+        <v>0.396814782688472</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.4786663361946244</v>
+        <v>-0.2896093897335328</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.213694016397336</v>
+        <v>-1.250992611771329</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.6852906577162562</v>
+        <v>-0.6950099479920101</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.8518683021637428</v>
+        <v>-1.205329106647362</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.2123639830302028</v>
+        <v>0</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.4134909214906768</v>
+        <v>0.4890691489236754</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.1883194338956408</v>
+        <v>-0.3099858657673455</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.330253789075485</v>
+        <v>-0.4069489512076992</v>
       </c>
     </row>
     <row r="48">
@@ -2102,31 +2098,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.336352176494204</v>
+        <v>5.214392268760109</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.334821940640277</v>
+        <v>4.028040918367451</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.783950353842431</v>
+        <v>2.73179083871494</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.06385267938186</v>
+        <v>3.69174501541981</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.073421512569682</v>
+        <v>2.777289740122822</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.865032590789425</v>
+        <v>6.983375502737123</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.085408600280319</v>
+        <v>4.188001700051619</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.741281120629198</v>
+        <v>2.741594703318236</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.226625253163973</v>
+        <v>2.932751032761122</v>
       </c>
     </row>
     <row r="49">
@@ -2143,7 +2139,7 @@
         <v>0.8988276186504066</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.3850396115421338</v>
+        <v>0.385039611542134</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>1.43226454463073</v>
@@ -2172,25 +2168,27 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.01775983384838501</v>
+        <v>0.05673861724917919</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2789953584346805</v>
+        <v>-0.2706481377927633</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5536224849835373</v>
-      </c>
-      <c r="F50" s="6" t="inlineStr"/>
+        <v>-0.5792424348341481</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G50" s="6" t="inlineStr"/>
       <c r="H50" s="6" t="inlineStr"/>
       <c r="I50" s="6" t="n">
-        <v>0.03308270632044333</v>
+        <v>0.08501494115083583</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1981139371551874</v>
+        <v>-0.2530794042216639</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2842483055612206</v>
+        <v>-0.2947597439315776</v>
       </c>
     </row>
     <row r="51">
@@ -2201,25 +2199,25 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>5.30120947505597</v>
+        <v>5.805505474844887</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>3.665376067859809</v>
+        <v>4.710231263662499</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>3.292630618653982</v>
+        <v>3.603117987172951</v>
       </c>
       <c r="F51" s="6" t="inlineStr"/>
       <c r="G51" s="6" t="inlineStr"/>
       <c r="H51" s="6" t="inlineStr"/>
       <c r="I51" s="6" t="n">
-        <v>4.857628061329641</v>
+        <v>4.944846714229356</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>3.227447508285531</v>
+        <v>3.24535628881427</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>3.634495596715871</v>
+        <v>3.572753005565543</v>
       </c>
     </row>
     <row r="52">
@@ -2240,7 +2238,7 @@
         <v>2.52043035817257</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>3.759696653775256</v>
+        <v>3.759696653775255</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>0.6809121877644861</v>
@@ -2258,7 +2256,7 @@
         <v>2.195706899642088</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>3.097231925436511</v>
+        <v>3.09723192543651</v>
       </c>
     </row>
     <row r="53">
@@ -2269,31 +2267,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>2.6821612893938</v>
+        <v>2.589997370424974</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>1.273079055273578</v>
+        <v>1.263445923167827</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.271398516380783</v>
+        <v>2.261047235800225</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.6316875585981321</v>
+        <v>-0.5690562346720659</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.5302991641437997</v>
+        <v>0.4393413770461828</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.5642143604547321</v>
+        <v>0.6454792471641312</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1.763644076273358</v>
+        <v>1.876836719718304</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.232789175214244</v>
+        <v>1.251650828604843</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>2.0752001594303</v>
+        <v>1.890466992467622</v>
       </c>
     </row>
     <row r="54">
@@ -2304,31 +2302,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>5.321486031262173</v>
+        <v>5.405998967433164</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>3.785104801672497</v>
+        <v>3.78920555029956</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>5.279019198721421</v>
+        <v>5.28866711107375</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2.003190431916776</v>
+        <v>1.929388322785774</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.238730074169697</v>
+        <v>3.09976532664202</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.749417118555415</v>
+        <v>3.660055443802205</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>3.928283742220922</v>
+        <v>3.947094868119743</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.189142802040658</v>
+        <v>3.169216642900173</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>4.426000084545295</v>
+        <v>4.189236060423481</v>
       </c>
     </row>
     <row r="55">
@@ -2374,31 +2372,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.7941891430546627</v>
+        <v>0.7523059652989577</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.3804279879982054</v>
+        <v>0.3673379157051917</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.672216618467118</v>
+        <v>0.6960883045244998</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.3070694517829721</v>
+        <v>-0.2944288354083832</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1520414735143491</v>
+        <v>0.1748537852191651</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1625792519752853</v>
+        <v>0.2296775350666087</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.6379743142785517</v>
+        <v>0.6736906767390292</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.4159190157807411</v>
+        <v>0.4279272721432132</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.7425357832120286</v>
+        <v>0.6737622957935602</v>
       </c>
     </row>
     <row r="57">
@@ -2409,31 +2407,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>2.371251764265455</v>
+        <v>2.36026971263729</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.745354962766841</v>
+        <v>1.674675813464951</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>2.267758282787707</v>
+        <v>2.4765188256176</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>2.322840084691677</v>
+        <v>2.158859278961776</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>3.618796770727195</v>
+        <v>3.387969233832544</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>4.132485325089032</v>
+        <v>3.837521950634414</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>1.998778598307734</v>
+        <v>2.0304991237468</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>1.652481370295045</v>
+        <v>1.616505779831636</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>2.282360830242046</v>
+        <v>2.137625907217459</v>
       </c>
     </row>
     <row r="58">
